--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Startup</t>
+  </si>
   <si>
     <t>TimeStamp</t>
   </si>
@@ -352,1167 +355,1860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A231"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>42487.14059027778</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>42487.14059027778</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>42487.14063657408</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>42487.14063657408</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>42487.14068287037</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
         <v>42487.14068287037</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
         <v>42487.14072916667</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
         <v>42487.14072916667</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>42487.14077546296</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
         <v>42487.14077546296</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
         <v>42487.14081018518</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
         <v>42487.14082175926</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
         <v>42487.14085648148</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
         <v>42487.14085648148</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
         <v>42487.14090277778</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
         <v>42487.14091435185</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
         <v>42487.14094907408</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
         <v>42487.14096064815</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
         <v>42487.14099537037</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
         <v>42487.14099537037</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
         <v>42487.14106481482</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
         <v>42487.14106481482</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
         <v>42487.14111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
         <v>42487.14111111111</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
         <v>42487.14115740741</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
         <v>42487.14115740741</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
         <v>42487.1412037037</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
         <v>42487.1412037037</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
         <v>42487.14125</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>42487.14125</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
         <v>42487.14129629629</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
         <v>42487.14129629629</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>42487.14134259259</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
         <v>42487.14134259259</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
         <v>42487.14138888889</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
         <v>42487.14138888889</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
         <v>42487.14143518519</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
         <v>42487.14143518519</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
         <v>42487.14148148148</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
         <v>42487.14148148148</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
         <v>42487.14152777778</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
         <v>42487.14152777778</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1">
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
         <v>42487.14157407408</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1">
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
         <v>42487.14157407408</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
         <v>42487.14162037037</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1">
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
         <v>42487.14162037037</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1">
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
         <v>42487.14166666667</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
         <v>42487.14166666667</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
         <v>42487.14170138889</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1">
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
         <v>42487.14171296296</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
         <v>42487.14174768519</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1">
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
         <v>42487.14174768519</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
         <v>42487.14179398148</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
         <v>42487.14179398148</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1">
         <v>42487.14184027778</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1">
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
         <v>42487.14184027778</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
         <v>42487.14188657407</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
         <v>42487.14188657407</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
         <v>42487.14193287037</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
         <v>42487.14193287037</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1">
         <v>42487.14197916666</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
         <v>42487.14197916666</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
         <v>42487.14202546296</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1">
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
         <v>42487.14202546296</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1">
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
         <v>42487.14207175926</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1">
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
         <v>42487.14207175926</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1">
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
         <v>42487.14211805556</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1">
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
         <v>42487.14211805556</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1">
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1">
         <v>42487.14216435186</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1">
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
         <v>42487.14216435186</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1">
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
         <v>42487.14221064815</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1">
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
         <v>42487.14221064815</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1">
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
         <v>42487.14224537037</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
         <v>42487.14225694445</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1">
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
         <v>42487.14229166666</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1">
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
         <v>42487.14229166666</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1">
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
         <v>42487.14233796296</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1">
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1">
         <v>42487.14233796296</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1">
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
         <v>42487.14238425926</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1">
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
         <v>42487.14238425926</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1">
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
         <v>42487.14243055556</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
         <v>42487.14243055556</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1">
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
         <v>42487.14247685186</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1">
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
         <v>42487.14247685186</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1">
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1">
         <v>42487.14252314815</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1">
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
         <v>42487.14252314815</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1">
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1">
         <v>42487.14256944445</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1">
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1">
         <v>42487.14256944445</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1">
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
         <v>42487.14261574074</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1">
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
         <v>42487.14261574074</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1">
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
         <v>42487.14266203704</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1">
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1">
         <v>42487.14266203704</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1">
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
         <v>42487.14270833333</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1">
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
         <v>42487.14270833333</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1">
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1">
         <v>42487.14275462963</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1">
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1">
         <v>42487.14275462963</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1">
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
         <v>42487.14280092593</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1">
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
         <v>42487.14280092593</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1">
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
         <v>42487.14284722223</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1">
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
         <v>42487.14284722223</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1">
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
         <v>42487.14289351852</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1">
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
         <v>42487.14289351852</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1">
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
         <v>42487.14292824074</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1">
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
         <v>42487.14293981482</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1">
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
         <v>42487.14297453704</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1">
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
         <v>42487.14297453704</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1">
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1">
         <v>42487.14302083333</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1">
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1">
         <v>42487.14302083333</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1">
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
         <v>42487.14306712963</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1">
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1">
         <v>42487.14306712963</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1">
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
         <v>42487.14311342593</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1">
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" s="1">
         <v>42487.14311342593</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1">
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
         <v>42487.14315972223</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1">
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1">
         <v>42487.14315972223</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1">
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1">
         <v>42487.14320601852</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1">
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1">
         <v>42487.14320601852</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1">
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1">
         <v>42487.14325231482</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1">
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1">
         <v>42487.14325231482</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1">
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
         <v>42487.14329861111</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1">
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1">
         <v>42487.14329861111</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1">
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>314</v>
+      </c>
+      <c r="B122" s="1">
         <v>42487.14334490741</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1">
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>313</v>
+      </c>
+      <c r="B123" s="1">
         <v>42487.14334490741</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1">
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>310</v>
+      </c>
+      <c r="B124" s="1">
         <v>42487.1433912037</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1">
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>309</v>
+      </c>
+      <c r="B125" s="1">
         <v>42487.1433912037</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1">
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>306</v>
+      </c>
+      <c r="B126" s="1">
         <v>42487.1434375</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1">
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>306</v>
+      </c>
+      <c r="B127" s="1">
         <v>42487.1434375</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1">
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>302</v>
+      </c>
+      <c r="B128" s="1">
         <v>42487.14347222223</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1">
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>302</v>
+      </c>
+      <c r="B129" s="1">
         <v>42487.1434837963</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1">
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>298</v>
+      </c>
+      <c r="B130" s="1">
         <v>42487.14351851852</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1">
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>298</v>
+      </c>
+      <c r="B131" s="1">
         <v>42487.14351851852</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1">
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>294</v>
+      </c>
+      <c r="B132" s="1">
         <v>42487.14356481482</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1">
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>294</v>
+      </c>
+      <c r="B133" s="1">
         <v>42487.14356481482</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1">
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>290</v>
+      </c>
+      <c r="B134" s="1">
         <v>42487.14361111111</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1">
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>290</v>
+      </c>
+      <c r="B135" s="1">
         <v>42487.14361111111</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1">
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>287</v>
+      </c>
+      <c r="B136" s="1">
         <v>42487.14365740741</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1">
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>286</v>
+      </c>
+      <c r="B137" s="1">
         <v>42487.14365740741</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1">
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>283</v>
+      </c>
+      <c r="B138" s="1">
         <v>42487.1437037037</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1">
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>282</v>
+      </c>
+      <c r="B139" s="1">
         <v>42487.1437037037</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1">
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>279</v>
+      </c>
+      <c r="B140" s="1">
         <v>42487.14375</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1">
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>278</v>
+      </c>
+      <c r="B141" s="1">
         <v>42487.14375</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1">
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>275</v>
+      </c>
+      <c r="B142" s="1">
         <v>42487.1437962963</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1">
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>275</v>
+      </c>
+      <c r="B143" s="1">
         <v>42487.1437962963</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1">
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>271</v>
+      </c>
+      <c r="B144" s="1">
         <v>42487.1438425926</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1">
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>271</v>
+      </c>
+      <c r="B145" s="1">
         <v>42487.1438425926</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1">
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>266</v>
+      </c>
+      <c r="B146" s="1">
         <v>42487.14390046296</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1">
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>266</v>
+      </c>
+      <c r="B147" s="1">
         <v>42487.14390046296</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1">
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>262</v>
+      </c>
+      <c r="B148" s="1">
         <v>42487.14394675926</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1">
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>262</v>
+      </c>
+      <c r="B149" s="1">
         <v>42487.14394675926</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1">
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>259</v>
+      </c>
+      <c r="B150" s="1">
         <v>42487.14399305556</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1">
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>258</v>
+      </c>
+      <c r="B151" s="1">
         <v>42487.14399305556</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1">
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>255</v>
+      </c>
+      <c r="B152" s="1">
         <v>42487.14403935185</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1">
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>254</v>
+      </c>
+      <c r="B153" s="1">
         <v>42487.14403935185</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1">
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>251</v>
+      </c>
+      <c r="B154" s="1">
         <v>42487.14407407407</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1">
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>251</v>
+      </c>
+      <c r="B155" s="1">
         <v>42487.14408564815</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1">
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>247</v>
+      </c>
+      <c r="B156" s="1">
         <v>42487.14412037037</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1">
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>247</v>
+      </c>
+      <c r="B157" s="1">
         <v>42487.14412037037</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1">
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>243</v>
+      </c>
+      <c r="B158" s="1">
         <v>42487.14416666667</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1">
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>243</v>
+      </c>
+      <c r="B159" s="1">
         <v>42487.14416666667</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1">
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>239</v>
+      </c>
+      <c r="B160" s="1">
         <v>42487.14421296296</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1">
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>239</v>
+      </c>
+      <c r="B161" s="1">
         <v>42487.14421296296</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1">
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>236</v>
+      </c>
+      <c r="B162" s="1">
         <v>42487.14425925926</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1">
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>235</v>
+      </c>
+      <c r="B163" s="1">
         <v>42487.14425925926</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1">
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>232</v>
+      </c>
+      <c r="B164" s="1">
         <v>42487.14430555556</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1">
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>231</v>
+      </c>
+      <c r="B165" s="1">
         <v>42487.14430555556</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1">
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>228</v>
+      </c>
+      <c r="B166" s="1">
         <v>42487.14435185185</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1">
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>228</v>
+      </c>
+      <c r="B167" s="1">
         <v>42487.14435185185</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1">
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>224</v>
+      </c>
+      <c r="B168" s="1">
         <v>42487.14439814815</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1">
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>224</v>
+      </c>
+      <c r="B169" s="1">
         <v>42487.14439814815</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1">
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>220</v>
+      </c>
+      <c r="B170" s="1">
         <v>42487.14444444444</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1">
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>220</v>
+      </c>
+      <c r="B171" s="1">
         <v>42487.14444444444</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1">
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>216</v>
+      </c>
+      <c r="B172" s="1">
         <v>42487.14449074074</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1">
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>216</v>
+      </c>
+      <c r="B173" s="1">
         <v>42487.14449074074</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1">
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>212</v>
+      </c>
+      <c r="B174" s="1">
         <v>42487.14453703703</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1">
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>212</v>
+      </c>
+      <c r="B175" s="1">
         <v>42487.14453703703</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1">
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>208</v>
+      </c>
+      <c r="B176" s="1">
         <v>42487.14458333333</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1">
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>208</v>
+      </c>
+      <c r="B177" s="1">
         <v>42487.14458333333</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1">
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>205</v>
+      </c>
+      <c r="B178" s="1">
         <v>42487.14462962963</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1">
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>204</v>
+      </c>
+      <c r="B179" s="1">
         <v>42487.14462962963</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1">
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>201</v>
+      </c>
+      <c r="B180" s="1">
         <v>42487.14466435185</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1">
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>200</v>
+      </c>
+      <c r="B181" s="1">
         <v>42487.14467592593</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1">
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>197</v>
+      </c>
+      <c r="B182" s="1">
         <v>42487.14471064815</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1">
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>197</v>
+      </c>
+      <c r="B183" s="1">
         <v>42487.14471064815</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1">
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>193</v>
+      </c>
+      <c r="B184" s="1">
         <v>42487.14475694444</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1">
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>193</v>
+      </c>
+      <c r="B185" s="1">
         <v>42487.14475694444</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1">
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>189</v>
+      </c>
+      <c r="B186" s="1">
         <v>42487.14480324074</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1">
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>189</v>
+      </c>
+      <c r="B187" s="1">
         <v>42487.14480324074</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1">
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" s="1">
         <v>42487.14484953704</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1">
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" s="1">
         <v>42487.14484953704</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1">
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>181</v>
+      </c>
+      <c r="B190" s="1">
         <v>42487.14489583333</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1">
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>181</v>
+      </c>
+      <c r="B191" s="1">
         <v>42487.14489583333</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1">
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>177</v>
+      </c>
+      <c r="B192" s="1">
         <v>42487.14494212963</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="1">
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>177</v>
+      </c>
+      <c r="B193" s="1">
         <v>42487.14494212963</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1">
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>174</v>
+      </c>
+      <c r="B194" s="1">
         <v>42487.14498842593</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1">
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>173</v>
+      </c>
+      <c r="B195" s="1">
         <v>42487.14498842593</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="1">
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>170</v>
+      </c>
+      <c r="B196" s="1">
         <v>42487.14503472222</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1">
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>169</v>
+      </c>
+      <c r="B197" s="1">
         <v>42487.14503472222</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1">
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>166</v>
+      </c>
+      <c r="B198" s="1">
         <v>42487.14508101852</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="1">
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>166</v>
+      </c>
+      <c r="B199" s="1">
         <v>42487.14508101852</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1">
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>162</v>
+      </c>
+      <c r="B200" s="1">
         <v>42487.14512731481</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="1">
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>162</v>
+      </c>
+      <c r="B201" s="1">
         <v>42487.14512731481</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1">
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>158</v>
+      </c>
+      <c r="B202" s="1">
         <v>42487.14517361111</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1">
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>158</v>
+      </c>
+      <c r="B203" s="1">
         <v>42487.14517361111</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1">
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>154</v>
+      </c>
+      <c r="B204" s="1">
         <v>42487.1452199074</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1">
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>154</v>
+      </c>
+      <c r="B205" s="1">
         <v>42487.1452199074</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1">
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>151</v>
+      </c>
+      <c r="B206" s="1">
         <v>42487.14525462963</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="1">
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>150</v>
+      </c>
+      <c r="B207" s="1">
         <v>42487.1452662037</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1">
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208" s="1">
         <v>42487.14530092593</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1">
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>146</v>
+      </c>
+      <c r="B209" s="1">
         <v>42487.14530092593</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1">
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>143</v>
+      </c>
+      <c r="B210" s="1">
         <v>42487.14534722222</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1">
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>143</v>
+      </c>
+      <c r="B211" s="1">
         <v>42487.14534722222</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="1">
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>139</v>
+      </c>
+      <c r="B212" s="1">
         <v>42487.14539351852</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1">
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>139</v>
+      </c>
+      <c r="B213" s="1">
         <v>42487.14539351852</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1">
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>135</v>
+      </c>
+      <c r="B214" s="1">
         <v>42487.14543981481</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1">
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>135</v>
+      </c>
+      <c r="B215" s="1">
         <v>42487.14543981481</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="1">
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>131</v>
+      </c>
+      <c r="B216" s="1">
         <v>42487.14548611111</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1">
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>131</v>
+      </c>
+      <c r="B217" s="1">
         <v>42487.14548611111</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1">
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>127</v>
+      </c>
+      <c r="B218" s="1">
         <v>42487.1455324074</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1">
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>127</v>
+      </c>
+      <c r="B219" s="1">
         <v>42487.1455324074</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1">
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>124</v>
+      </c>
+      <c r="B220" s="1">
         <v>42487.1455787037</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="1">
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>123</v>
+      </c>
+      <c r="B221" s="1">
         <v>42487.1455787037</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="1">
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>120</v>
+      </c>
+      <c r="B222" s="1">
         <v>42487.145625</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="1">
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>119</v>
+      </c>
+      <c r="B223" s="1">
         <v>42487.145625</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="1">
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>116</v>
+      </c>
+      <c r="B224" s="1">
         <v>42487.1456712963</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="1">
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>115</v>
+      </c>
+      <c r="B225" s="1">
         <v>42487.1456712963</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1">
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>112</v>
+      </c>
+      <c r="B226" s="1">
         <v>42487.14571759259</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="1">
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>112</v>
+      </c>
+      <c r="B227" s="1">
         <v>42487.14571759259</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1">
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>108</v>
+      </c>
+      <c r="B228" s="1">
         <v>42487.14576388889</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="1">
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>108</v>
+      </c>
+      <c r="B229" s="1">
         <v>42487.14576388889</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="1">
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>104</v>
+      </c>
+      <c r="B230" s="1">
         <v>42487.14581018518</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1">
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>104</v>
+      </c>
+      <c r="B231" s="1">
         <v>42487.14581018518</v>
       </c>
     </row>
